--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -75,7 +75,7 @@
 "mobile_phone":13511111112,
 "pwd":11111111,
 "type":1,
-"reg_name":"nick2"
+"reg_name":"nick3"
 }
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
